--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Encounter.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:32:15+00:00</t>
+    <t>2021-11-25T06:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
